--- a/project/excel/ingest_metadata.xlsx
+++ b/project/excel/ingest_metadata.xlsx
@@ -7,9 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NamedThing" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IngestMetadata" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="IngestMetadataCollection" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="IngestMetadata" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,104 +424,117 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>created_by</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>primary_email</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>birth_date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>age_in_years</t>
+          <t>creation_date</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>vital_status</t>
+          <t>ingest_code_url</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>ingest_guide_url</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>source_infores_id</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"ALIVE,DEAD,UNKNOWN"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>entries</t>
+          <t>source_license</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>source_data_version</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>source_publication_date</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>source_download_date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>source_access_urls</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>source_data_formats</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>source_data_files</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>target_title</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>target_type</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>target_data_version</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>target_creation_date</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>target_license</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>target_data_format</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>target_data_model</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>target_data_model_version</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>node_normalizer</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>node_normalizer_version</t>
         </is>
       </c>
     </row>

--- a/project/excel/ingest_metadata.xlsx
+++ b/project/excel/ingest_metadata.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IngestMetadata" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="IngestMetadataFile" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,17 +424,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>file_name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>created_by</t>
+          <t>file_created_by</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>creation_date</t>
+          <t>file_creation_date</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -444,97 +444,97 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ingest_guide_url</t>
+          <t>source_infores_id</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>source_infores_id</t>
+          <t>source_data_version</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>source_license</t>
+          <t>source_access_date</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>source_data_version</t>
+          <t>source_access_urls</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>source_publication_date</t>
+          <t>source_file_names</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>source_download_date</t>
+          <t>target_name</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>source_access_urls</t>
+          <t>target_creation_date</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>source_data_formats</t>
+          <t>target_format</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>source_data_files</t>
+          <t>target_model</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>target_title</t>
+          <t>target_model_url</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>target_type</t>
+          <t>target_data_model_version</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>target_data_version</t>
+          <t>node_normalizer</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>target_creation_date</t>
+          <t>node_normalizer_version</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>target_license</t>
+          <t>node_normalizer_url</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>target_data_format</t>
+          <t>total_edge_count</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>target_data_model</t>
+          <t>total_node_count</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>target_data_model_version</t>
+          <t>orphan_node_count</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>node_normalizer</t>
+          <t>node_categories</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>node_normalizer_version</t>
+          <t>edge_predicates</t>
         </is>
       </c>
     </row>

--- a/project/excel/ingest_metadata.xlsx
+++ b/project/excel/ingest_metadata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,95 +444,100 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>ingest_code_version</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>source_infores_id</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>source_data_version</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>source_access_date</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>source_access_urls</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>source_file_names</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>target_name</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>target_creation_date</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>target_format</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>target_model</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>target_model_url</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>target_data_model_version</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>node_normalizer</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>node_normalizer_version</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>node_normalizer_url</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>total_edge_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>total_node_count</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>orphan_node_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>node_categories</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>edge_predicates</t>
         </is>
